--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3001568.937354796</v>
+        <v>2999311.915445714</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>72.76769201460587</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>266.6210949690529</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>252.1747018788499</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>367.121554986546</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.26682930112241</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>399.1863452041686</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>361.9137890538179</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>43.60620160013897</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0246247964033</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>270.3808622796244</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>144.7268717888064</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417125</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>129.6914402933783</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>214.8472539267899</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>215.9919723025118</v>
       </c>
       <c r="U19" t="n">
-        <v>137.8998463176348</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>74.75769145492323</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>181.1375494785988</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>74.75769145492312</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>114.4746605491549</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>90.41948680756504</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.35257921647462</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>15.07437110675836</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>244.3794931914763</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,10 +3241,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>24.92093637963973</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935321</v>
+        <v>178.7757248935318</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5897927156032381</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164183</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430367</v>
+        <v>188.7127700430364</v>
       </c>
       <c r="T37" t="n">
-        <v>218.492693987764</v>
+        <v>218.4926939877637</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172077</v>
+        <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354228</v>
+        <v>251.0813880354225</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481858</v>
+        <v>249.518470635618</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006319</v>
+        <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800351</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996196</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797643</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043385</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404355</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829573227</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124535</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514546</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870201</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704444</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800351</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996196</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797643</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043385</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404355</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572804</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.3772837912493</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145462</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870201</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704444</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734101331</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633445</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800351</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996196</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797641</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433849</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404355</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572805</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124545</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870201</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052352</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179982</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704444</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.609516733502</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1293.182375355301</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>924.2198584148889</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>924.2198584148889</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>538.4316058166446</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>127.445701027037</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.387305656314</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2069.921547395234</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1679.782215419422</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551155</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="W4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1958.288858935031</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.288858935031</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
         <v>222.942782082032</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>982.8165910026955</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="C8" t="n">
-        <v>982.8165910026955</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="D8" t="n">
-        <v>624.5508923959451</v>
+        <v>753.6526864263105</v>
       </c>
       <c r="E8" t="n">
-        <v>624.5508923959451</v>
+        <v>753.6526864263105</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>746.7071856771071</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.555763042629</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y8" t="n">
-        <v>1369.416431066817</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="9">
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4984,13 +4984,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U10" t="n">
         <v>308.6274700262513</v>
@@ -5018,19 +5018,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622689</v>
+        <v>1236.699401366029</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2215.249704195858</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5133,13 +5133,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,7 +5148,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5157,7 +5157,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201815</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>245.6776738607302</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,13 +5261,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,22 +5276,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
         <v>4195.497197679678</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161915</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089887</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142067</v>
@@ -5385,19 +5385,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
         <v>1138.808109517387</v>
@@ -5437,49 +5437,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1735.511554020435</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1446.408687146078</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V16" t="n">
-        <v>1191.724198940191</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.724198940191</v>
+        <v>782.0861832119344</v>
       </c>
       <c r="X16" t="n">
-        <v>963.7346480421741</v>
+        <v>782.0861832119344</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.942068898644</v>
+        <v>561.2936040684043</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3517.878731871642</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4231.233819318588</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4689.712021827576</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5616,28 +5616,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>410.7144041584436</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5689,7 +5689,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
@@ -5701,22 +5701,22 @@
         <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1546.483872535053</v>
       </c>
       <c r="U19" t="n">
-        <v>1403.598192442839</v>
+        <v>1257.381005660696</v>
       </c>
       <c r="V19" t="n">
-        <v>1148.913704236952</v>
+        <v>1002.696517454809</v>
       </c>
       <c r="W19" t="n">
-        <v>859.4965341999909</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X19" t="n">
-        <v>631.5069833019736</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y19" t="n">
-        <v>410.7144041584436</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5753,43 +5753,43 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>722.4071781934695</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5835,46 +5835,46 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.073854099832</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.073854099832</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.073854099832</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.073854099832</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.073854099832</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.073854099832</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927023</v>
@@ -5938,22 +5938,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413795</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433622</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>171.073854099832</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,46 +5987,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427193</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867998</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N23" t="n">
-        <v>3316.966490094645</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6072,22 +6072,22 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C25" t="n">
         <v>95.56103444839442</v>
@@ -6175,22 +6175,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6227,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>913.1101661838568</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M26" t="n">
-        <v>2782.232616025903</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.001456870722</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6306,7 +6306,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>481.6968904858345</v>
+        <v>499.6351384500831</v>
       </c>
       <c r="C28" t="n">
-        <v>481.6968904858345</v>
+        <v>330.6989555221762</v>
       </c>
       <c r="D28" t="n">
-        <v>481.6968904858345</v>
+        <v>330.6989555221762</v>
       </c>
       <c r="E28" t="n">
-        <v>333.7837969034414</v>
+        <v>182.7858619397831</v>
       </c>
       <c r="F28" t="n">
-        <v>186.8938494055308</v>
+        <v>182.7858619397831</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>182.7858619397831</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>182.7858619397831</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208124</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838518</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858345</v>
+        <v>681.2836032803228</v>
       </c>
       <c r="Y28" t="n">
-        <v>481.6968904858345</v>
+        <v>681.2836032803228</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1076.848340014667</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6552,10 +6552,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
         <v>2436.460902902953</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>410.7144041584436</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C31" t="n">
-        <v>241.7782212305366</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="D31" t="n">
-        <v>241.7782212305366</v>
+        <v>110.7876719299685</v>
       </c>
       <c r="E31" t="n">
-        <v>241.7782212305366</v>
+        <v>110.7876719299685</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305366</v>
+        <v>110.7876719299685</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>110.7876719299685</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>110.7876719299685</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862231</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.410141987875</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1330.562169067191</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W31" t="n">
-        <v>1041.144999030231</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X31" t="n">
-        <v>813.1554481322135</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y31" t="n">
-        <v>592.3628689886833</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,25 +6698,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>419.327655504578</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>753.1470291944245</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>508.0400813400985</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121915</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121915</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121915</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208123</v>
+        <v>1427.887846248846</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838517</v>
+        <v>1138.470676211886</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858344</v>
+        <v>910.4811253138683</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423043</v>
+        <v>689.6885461703382</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6935,19 +6935,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,19 +7014,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.15678466617547</v>
+        <v>263.4302928425584</v>
       </c>
       <c r="C37" t="n">
-        <v>96.15678466617547</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>96.15678466617547</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>96.15678466617547</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>96.15678466617547</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>96.15678466617547</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308512</v>
+        <v>141.7293596308514</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152487</v>
+        <v>346.7622353152491</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992659</v>
+        <v>664.3677264992667</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834336</v>
+        <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275722</v>
+        <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931656</v>
+        <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100837</v>
+        <v>1886.053019100839</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988873</v>
+        <v>1964.709007988875</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988873</v>
+        <v>1875.945475280146</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349442</v>
+        <v>1685.326515640715</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.39035745271</v>
+        <v>1464.626824743984</v>
       </c>
       <c r="U37" t="n">
-        <v>1265.354415112097</v>
+        <v>1176.590882403371</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.736851439953</v>
+        <v>922.9733187312266</v>
       </c>
       <c r="W37" t="n">
-        <v>723.3866059367347</v>
+        <v>670.9344595033297</v>
       </c>
       <c r="X37" t="n">
-        <v>496.4639795724599</v>
+        <v>444.0118331390552</v>
       </c>
       <c r="Y37" t="n">
-        <v>276.7383249626724</v>
+        <v>444.0118331390552</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3511.079945518569</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4224.435032965514</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4682.913235474502</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7202,16 +7202,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,64 +7227,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215085</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416751</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774128</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430933</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932564</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160488</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819756</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477368</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.68162034902</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.746804049923</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901879</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N40" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123958</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604459</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122059</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195776</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937962</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849075</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899131</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036747</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,19 +7409,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7436,25 +7436,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7479,7 +7479,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,19 +7488,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.515167821508</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416746</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774124</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430927</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932558</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160483</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819796</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477368</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490198</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499227</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
-        <v>1191.409234901879</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N43" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O43" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P43" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123958</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604459</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122058</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195775</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.564400937962</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849075</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899131</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036743</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H44" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277722</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.56914656307</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811478</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483401</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542182</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232735</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.49719767968</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193654</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320297</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454344</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008798</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215044</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841671</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774087</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430891</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819757</v>
@@ -7804,52 +7804,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477365</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490192</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499215</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
-        <v>1191.409234901877</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.322996860148</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.157981032967</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719033</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123954</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829555</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604455</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122055</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195772</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.564400937958</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849071</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899127</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036707</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>169.5026663584952</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>341.5962138876751</v>
       </c>
       <c r="M14" t="n">
-        <v>344.7025836476839</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>76.45227440777427</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>29.61882225792191</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,25 +9401,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>105.1996354507103</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400261</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>353.764234829086</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>258.6211785616945</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,22 +9875,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>297.8289162490814</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>246.454569480845</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>7.630896635344868</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>136.2499899971294</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10592,13 +10592,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>36.48628322062227</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>288.0478149561034</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.702583647695</v>
+        <v>272.882861657588</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>16.14213605696659</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>73.85778156328834</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>89.85750898279086</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>71.6757444098011</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983812</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>3.556976973657356</v>
       </c>
       <c r="U19" t="n">
-        <v>148.3119918879781</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,7 +24142,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>69.99732345939755</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983812</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>105.074288727014</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370471</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>105.0742887270142</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>75.60632145146319</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>9.999841193363498</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>81.27804930307973</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>7.758150132351687</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696651</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>227.2167069441883</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102226</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298071</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581639</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
-        <v>144.364792734526</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>164.969552970623</v>
+        <v>164.9695529706227</v>
       </c>
       <c r="H37" t="n">
-        <v>143.1089669103123</v>
+        <v>143.6987596259153</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143289</v>
+        <v>95.29616512143261</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.8758973816421</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>35.94827241256753</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636893</v>
       </c>
     </row>
     <row r="38">
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-4.234976813677349e-12</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-3.929301328753354e-12</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751956.8841304287</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>776819.2155139722</v>
+        <v>776819.2155139721</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>776819.2155139722</v>
+        <v>776819.2155139721</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>776819.2155139722</v>
+        <v>776819.2155139721</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.460138033</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380337</v>
+      </c>
+      <c r="D2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="E2" t="n">
+        <v>655184.9483635223</v>
+      </c>
+      <c r="F2" t="n">
+        <v>655184.9483635228</v>
+      </c>
+      <c r="G2" t="n">
+        <v>655184.9483635226</v>
+      </c>
+      <c r="H2" t="n">
+        <v>655184.9483635228</v>
+      </c>
+      <c r="I2" t="n">
+        <v>655184.9483635224</v>
+      </c>
+      <c r="J2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="K2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="L2" t="n">
+        <v>655184.9483635228</v>
+      </c>
+      <c r="M2" t="n">
+        <v>655683.5513909024</v>
+      </c>
+      <c r="N2" t="n">
         <v>677359.4601380334</v>
-      </c>
-      <c r="C2" t="n">
-        <v>677359.4601380335</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380334</v>
-      </c>
-      <c r="E2" t="n">
-        <v>655184.9483635225</v>
-      </c>
-      <c r="F2" t="n">
-        <v>655184.9483635223</v>
-      </c>
-      <c r="G2" t="n">
-        <v>655184.9483635228</v>
-      </c>
-      <c r="H2" t="n">
-        <v>655184.9483635223</v>
-      </c>
-      <c r="I2" t="n">
-        <v>655184.9483635225</v>
-      </c>
-      <c r="J2" t="n">
-        <v>655184.9483635223</v>
-      </c>
-      <c r="K2" t="n">
-        <v>655184.9483635228</v>
-      </c>
-      <c r="L2" t="n">
-        <v>655184.9483635224</v>
-      </c>
-      <c r="M2" t="n">
-        <v>655683.5513909021</v>
-      </c>
-      <c r="N2" t="n">
-        <v>677359.4601380331</v>
       </c>
       <c r="O2" t="n">
         <v>677359.4601380338</v>
       </c>
       <c r="P2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380338</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696688</v>
+        <v>130487.3190696692</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506415017</v>
+        <v>36735.10506414964</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918988</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918995</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="K4" t="n">
-        <v>18148.49231918995</v>
-      </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811449</v>
+        <v>18496.05294811456</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740902</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740907</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740916</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="F5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26491,16 +26491,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="M5" t="n">
-        <v>96472.31657955459</v>
+        <v>96472.31657955461</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178816.1839970486</v>
+        <v>-178816.1839970489</v>
       </c>
       <c r="C6" t="n">
+        <v>411151.6952174962</v>
+      </c>
+      <c r="D6" t="n">
         <v>411151.6952174961</v>
       </c>
-      <c r="D6" t="n">
-        <v>411151.6952174959</v>
-      </c>
       <c r="E6" t="n">
-        <v>-186724.4762027876</v>
+        <v>-186791.671693014</v>
       </c>
       <c r="F6" t="n">
-        <v>540652.9377906187</v>
+        <v>540585.7423003938</v>
       </c>
       <c r="G6" t="n">
-        <v>540652.9377906192</v>
+        <v>540585.7423003934</v>
       </c>
       <c r="H6" t="n">
-        <v>540652.9377906187</v>
+        <v>540585.7423003934</v>
       </c>
       <c r="I6" t="n">
-        <v>540652.937790619</v>
+        <v>540585.7423003931</v>
       </c>
       <c r="J6" t="n">
-        <v>364229.7185980258</v>
+        <v>364162.5231078003</v>
       </c>
       <c r="K6" t="n">
-        <v>540652.9377906192</v>
+        <v>540585.7423003932</v>
       </c>
       <c r="L6" t="n">
-        <v>540652.9377906187</v>
+        <v>540585.7423003934</v>
       </c>
       <c r="M6" t="n">
-        <v>410227.8627935643</v>
+        <v>410162.178221603</v>
       </c>
       <c r="N6" t="n">
-        <v>506686.0307623718</v>
+        <v>506686.0307623727</v>
       </c>
       <c r="O6" t="n">
         <v>543421.1358265227</v>
       </c>
       <c r="P6" t="n">
-        <v>543421.1358265233</v>
+        <v>543421.1358265227</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.780663060511513e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405235</v>
+        <v>1.05625528840553</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018751</v>
+        <v>45.91888133018705</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,19 +26987,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.267152270703163e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.780663060511513e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>36.03392876660428</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>341.0164780061891</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>5.940996995934682</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753813</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>113.0981898921576</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>14.80881508571576</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>126.3983626790354</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>7.689700537542876</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>51.87038096697705</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>168.5393373498799</v>
       </c>
       <c r="T10" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-7.175468007208011e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29986,19 +29986,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>-3.979039320256561e-13</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405235</v>
+        <v>1.056255288405492</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859274</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859275</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233474</v>
@@ -32792,7 +32792,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353227</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>677.5556672467145</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>797.1863282800073</v>
       </c>
       <c r="M14" t="n">
-        <v>883.6236994779107</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>532.0423888001062</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908542</v>
@@ -35905,7 +35905,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>89.23202080014663</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>442.3909220061107</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282451</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222472</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013291</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>892.6853506593126</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>766.6741794499135</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36440,7 +36440,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>635.0202028044818</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>798.7564048937564</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>463.221011027677</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>327.036990965842</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306618</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789361</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147143</v>
+        <v>46.63467190147172</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327247</v>
+        <v>207.1039148327251</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586033</v>
+        <v>320.8136274586036</v>
       </c>
       <c r="M37" t="n">
-        <v>348.689634681889</v>
+        <v>348.6896346818893</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559453</v>
+        <v>345.9132014559456</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110449</v>
+        <v>303.4093855110453</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335156</v>
+        <v>236.0133264335159</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629887</v>
+        <v>79.45049382629915</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37564,7 +37564,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>96.09948176284705</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165897</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629123</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887909</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120766</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412325</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637032</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564864</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>826.9689307863301</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165894</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564864</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407856</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.336699126564</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923307</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302252</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129099</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359126</v>
+        <v>780.9358625458071</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908531</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636232</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152067</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597665</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609637</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316587</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629118</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887903</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120759</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861322</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.328266841232</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637026</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
